--- a/ky/downloads/data-excel/15.5.1.1.xlsx
+++ b/ky/downloads/data-excel/15.5.1.1.xlsx
@@ -526,20 +526,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="33.140625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="34.28515625" style="1" customWidth="1"/>
     <col min="4" max="10" width="9.42578125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -550,7 +548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -561,7 +559,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -575,8 +573,9 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -616,8 +615,11 @@
       <c r="M4" s="6">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N4" s="6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -639,8 +641,11 @@
       <c r="M5" s="10">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N5" s="10">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -680,8 +685,11 @@
       <c r="M6" s="10">
         <v>1.07</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N6" s="10">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -721,8 +729,11 @@
       <c r="M7" s="10">
         <v>25.27</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N7" s="10">
+        <v>25.27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -762,8 +773,11 @@
       <c r="M8" s="10">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N8" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -803,8 +817,11 @@
       <c r="M9" s="10">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N9" s="10">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -844,8 +861,11 @@
       <c r="M10" s="10">
         <v>21.74</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N10" s="10">
+        <v>21.74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -883,6 +903,9 @@
         <v>9.4600000000000009</v>
       </c>
       <c r="M11" s="11">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="N11" s="11">
         <v>9.4600000000000009</v>
       </c>
     </row>
